--- a/screens/wordclock/Word_Clock_MULTI_LANG.xlsx
+++ b/screens/wordclock/Word_Clock_MULTI_LANG.xlsx
@@ -153,7 +153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -206,6 +206,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF3300"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF6600"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -366,7 +373,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF996666"/>
-        <bgColor rgb="FF666699"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -396,7 +403,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF3333"/>
-        <bgColor rgb="FFFF3399"/>
+        <bgColor rgb="FFFF3300"/>
       </patternFill>
     </fill>
     <fill>
@@ -622,7 +629,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -839,8 +846,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -868,6 +875,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -903,11 +914,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -915,11 +926,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1240,13 +1251,13 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FFFF0066"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003333"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF006633"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFFF0066"/>
+      <rgbColor rgb="FFFF3300"/>
       <rgbColor rgb="FFFF3399"/>
       <rgbColor rgb="FF3333FF"/>
       <rgbColor rgb="FF333333"/>
@@ -1263,24 +1274,24 @@
   <dimension ref="A3:R65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="O13" activeCellId="0" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="3.04048582995951"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8582995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="3.8502024291498"/>
     <col collapsed="false" hidden="false" max="14" min="4" style="0" width="3.04048582995951"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.11336032388664"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.97165991902834"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.19838056680162"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="4.11336032388664"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.04048582995951"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.06882591093117"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="4.19838056680162"/>
     <col collapsed="false" hidden="false" max="30" min="19" style="0" width="3.04048582995951"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.06882591093117"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.19838056680162"/>
     <col collapsed="false" hidden="false" max="36" min="32" style="0" width="3.04048582995951"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="4.11336032388664"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="4.19838056680162"/>
     <col collapsed="false" hidden="false" max="82" min="38" style="0" width="3.04048582995951"/>
-    <col collapsed="false" hidden="false" max="1025" min="83" style="0" width="8.66801619433198"/>
+    <col collapsed="false" hidden="false" max="1025" min="83" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1722,22 +1733,22 @@
         <v>22</v>
       </c>
       <c r="J13" s="59" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K13" s="57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L13" s="57" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M13" s="57" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N13" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="O13" s="60" t="s">
         <v>10</v>
+      </c>
+      <c r="O13" s="62" t="s">
+        <v>22</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>107</v>
@@ -1748,40 +1759,40 @@
       <c r="C14" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="63" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="63" t="s">
+      <c r="E14" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="65" t="s">
+      <c r="H14" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="63" t="s">
+      <c r="K14" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="67" t="s">
+      <c r="O14" s="68" t="s">
         <v>6</v>
       </c>
       <c r="P14" s="0" t="n">
@@ -1835,7 +1846,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="68"/>
+      <c r="I16" s="69"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1844,20 +1855,20 @@
       <c r="O16" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="69" t="s">
+      <c r="C18" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69" t="s">
+      <c r="E18" s="70"/>
+      <c r="F18" s="70" t="s">
         <v>4</v>
       </c>
       <c r="G18" s="0" t="s">
@@ -1874,21 +1885,21 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="69" t="s">
+      <c r="K19" s="70" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="69" t="s">
+      <c r="B20" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="70" t="s">
         <v>10</v>
       </c>
       <c r="K20" s="0" t="s">
@@ -1896,23 +1907,23 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="69" t="s">
+      <c r="B21" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="69"/>
-      <c r="K21" s="69" t="s">
+      <c r="C21" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="70"/>
+      <c r="K21" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="M21" s="69" t="s">
+      <c r="L21" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="M21" s="70" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="0" t="s">
@@ -1920,7 +1931,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="70" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -1929,7 +1940,7 @@
       <c r="C22" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="69"/>
+      <c r="D22" s="70"/>
       <c r="K22" s="0" t="s">
         <v>13</v>
       </c>
@@ -1950,16 +1961,16 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="69" t="s">
+      <c r="B23" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="70" t="s">
         <v>16</v>
       </c>
       <c r="E23" s="0" t="s">
@@ -1988,16 +1999,16 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="69" t="s">
+      <c r="B24" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="70" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="0" t="s">
@@ -2038,11 +2049,11 @@
       <c r="B25" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
+      <c r="C25" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
       <c r="K25" s="0" t="s">
         <v>19</v>
       </c>
@@ -2063,29 +2074,29 @@
       <c r="A26" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="69" t="s">
+      <c r="B26" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="69"/>
-      <c r="K26" s="69" t="s">
+      <c r="E26" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="70"/>
+      <c r="K26" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="69" t="s">
+      <c r="L26" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="M26" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="N26" s="69" t="s">
+      <c r="M26" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="N26" s="70" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="0" t="s">
@@ -2096,16 +2107,16 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="70" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2124,16 +2135,16 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="69" t="s">
+      <c r="B29" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="70" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="0" t="s">
@@ -2141,13 +2152,13 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="69" t="s">
+      <c r="B30" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="70" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="0" t="s">
@@ -2161,19 +2172,19 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="B31" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="69" t="s">
+      <c r="E31" s="70" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
@@ -2205,25 +2216,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.69230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.73684210526316"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.46558704453441"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.0080971659919"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="2.36437246963563"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="2.46558704453441"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="2.36437246963563"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="2.77732793522267"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="2.46558704453441"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="3.31983805668016"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="2.46558704453441"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="3.2914979757085"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.33603238866397"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="2.1497975708502"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="2.25506072874494"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="1.63562753036437"/>
-    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="2.25506072874494"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="2.36437246963563"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.66801619433198"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="2.76923076923077"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="3.75708502024291"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.49797570850202"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="3.04048582995951"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="2.41295546558704"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="2.49797570850202"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="2.41295546558704"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="2.86234817813765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="2.49797570850202"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="3.30769230769231"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="2.49797570850202"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="3.30769230769231"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.46963562753037"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="2.23481781376518"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="2.31983805668016"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="1.61538461538462"/>
+    <col collapsed="false" hidden="false" max="20" min="19" style="0" width="2.31983805668016"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="2.41295546558704"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2269,40 +2280,40 @@
       <c r="B4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="71" t="s">
+      <c r="C4" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="74" t="s">
+      <c r="F4" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="78" t="s">
-        <v>3</v>
-      </c>
-      <c r="M4" s="79" t="s">
+      <c r="L4" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="81" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="0" t="n">
@@ -2313,19 +2324,19 @@
       <c r="B5" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="83" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="84" t="s">
+      <c r="E5" s="84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="82" t="s">
+      <c r="G5" s="83" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="17" t="s">
@@ -2334,19 +2345,19 @@
       <c r="I5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="85" t="s">
+      <c r="J5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="86" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="86" t="s">
+      <c r="K5" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="87" t="s">
+      <c r="M5" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="88" t="s">
         <v>29</v>
       </c>
       <c r="O5" s="0" t="n">
@@ -2357,40 +2368,40 @@
       <c r="B6" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="90" t="s">
+      <c r="E6" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="K6" s="93" t="s">
+      <c r="I6" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="93" t="s">
+      <c r="L6" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="93" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="94" t="s">
+      <c r="M6" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="95" t="s">
         <v>4</v>
       </c>
       <c r="O6" s="0" t="n">
@@ -2401,40 +2412,40 @@
       <c r="B7" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="97" t="s">
+      <c r="G7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="98" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="99" t="s">
+      <c r="H7" s="99" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="100" t="s">
+      <c r="J7" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="100" t="s">
+      <c r="K7" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="101" t="s">
+      <c r="L7" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="101" t="s">
+      <c r="M7" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="102" t="s">
+      <c r="N7" s="103" t="s">
         <v>6</v>
       </c>
       <c r="O7" s="0" t="n">
@@ -2445,7 +2456,7 @@
       <c r="B8" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="96" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="26" t="s">
@@ -2454,31 +2465,31 @@
       <c r="E8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="103" t="s">
+      <c r="F8" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="104" t="s">
+      <c r="H8" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="105" t="s">
+      <c r="I8" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="105" t="s">
+      <c r="K8" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="90" t="s">
+      <c r="L8" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="106" t="s">
+      <c r="M8" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="107" t="s">
         <v>27</v>
       </c>
       <c r="O8" s="0" t="n">
@@ -2489,40 +2500,40 @@
       <c r="B9" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="C9" s="107" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="108" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="90" t="s">
+      <c r="C9" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="109" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="110" t="s">
+      <c r="G9" s="110" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="112" t="s">
+      <c r="J9" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="112" t="s">
+      <c r="K9" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="112" t="s">
-        <v>6</v>
-      </c>
-      <c r="M9" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="106" t="s">
+      <c r="L9" s="113" t="s">
+        <v>6</v>
+      </c>
+      <c r="M9" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="N9" s="107" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="0" t="n">
@@ -2533,40 +2544,40 @@
       <c r="B10" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="C10" s="95" t="s">
+      <c r="C10" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="114" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="101" t="s">
+      <c r="F10" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="115" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="116" t="s">
+      <c r="I10" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="117" t="s">
+      <c r="K10" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="L10" s="118" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="N10" s="120" t="s">
+      <c r="L10" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="120" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="121" t="s">
         <v>7</v>
       </c>
       <c r="O10" s="0" t="n">
@@ -2577,40 +2588,40 @@
       <c r="B11" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="122" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="122" t="s">
+      <c r="D11" s="123" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="123" t="s">
+      <c r="F11" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="I11" s="90" t="s">
+      <c r="H11" s="91" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="125" t="s">
+      <c r="J11" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="125" t="s">
+      <c r="K11" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="125" t="s">
+      <c r="L11" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="125" t="s">
+      <c r="M11" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="106" t="s">
+      <c r="N11" s="107" t="s">
         <v>12</v>
       </c>
       <c r="O11" s="0" t="n">
@@ -2621,40 +2632,40 @@
       <c r="B12" s="0" t="n">
         <v>96</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="126" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="126" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="127" t="s">
+      <c r="E12" s="127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="127" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="128" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="129" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="130" t="s">
+      <c r="H12" s="129" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="130" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="131" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="130" t="s">
+      <c r="K12" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="130" t="s">
+      <c r="L12" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="130" t="s">
+      <c r="M12" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="131" t="s">
+      <c r="N12" s="132" t="s">
         <v>27</v>
       </c>
       <c r="O12" s="0" t="n">
@@ -2665,40 +2676,40 @@
       <c r="B13" s="0" t="n">
         <v>108</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="133" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="133" t="s">
+      <c r="D13" s="134" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="134" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="133" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13" s="134" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="135" t="s">
+      <c r="F13" s="134" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="136" t="s">
-        <v>3</v>
-      </c>
-      <c r="J13" s="137" t="s">
+      <c r="I13" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="138" t="s">
+      <c r="K13" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="138" t="s">
+      <c r="L13" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="138" t="s">
+      <c r="M13" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="139" t="s">
+      <c r="N13" s="140" t="s">
         <v>6</v>
       </c>
       <c r="O13" s="0" t="n">
